--- a/USB-6363_analog_input.xlsx
+++ b/USB-6363_analog_input.xlsx
@@ -7,14 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Benchmark Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Benchmark Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>Time</t>
+  </si>
   <si>
     <t>count</t>
   </si>
@@ -395,18 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -414,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1284580759</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0459072088676128</v>
+        <v>0.1428404584700002</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1127855789999999</v>
+        <v>0.00639537619547082</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1128525785000001</v>
+        <v>0.1288383610000068</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1147780165</v>
+        <v>0.1389596184999995</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.114861623</v>
+        <v>0.1438015015000005</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +463,8033 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2590817879999999</v>
+        <v>0.1473405417499905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.2587966030000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1001"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.2587966030000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1482150210000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1481189410000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.147097992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.142649263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.1430866089999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1289233220000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.1340671279999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.1414079300000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.1388901959999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.1469702649999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.1462731919999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.1485967719999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.1494324050000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.148174821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.1456371299999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.1387051649999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.1392009570000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.139718131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.1436066349999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.1386313229999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.1496530740000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.1478158780000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.1484539359999992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.1453811079999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.1383453660000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.137059271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.1392368789999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.1489046809999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.1489839399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.1477634190000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.1483504440000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.1456069089999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.1376790830000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.1305235980000008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.1387393770000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.1491396050000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.1476026209999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.149702682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.1481249279999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.1485243559999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.1465038390000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.1413811300000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.1473765359999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.1469936440000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.1457990669999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.137671385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.1310068449999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.1322644289999992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.139864103999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.1458552330000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.1404003800000009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.1489608459999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.1493622699999992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.1461833850000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.1495746699999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.1492764539999989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.1477976320000014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.1426874659999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.1396106479999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.1472770360000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.1363904229999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.1302148330000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.1390085130000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.1490800190000012</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.1447829649999992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.1401469250000016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.1451427629999991</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.139830461999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.1409588949999989</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.1478318429999987</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.1499230650000012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.147268768</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.14905379</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.1451852430000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.1407858369999992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.1329632140000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.146067918</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.1404799230000009</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.1476299920000006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.1438563839999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.1338855190000015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.1481263540000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.1489012600000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.1482706149999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.1482939939999994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.1495336159999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.1448297209999989</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.1406948899999989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.1374866389999987</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.1367242779999991</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.1490472329999992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.146224440000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.1475387589999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.148600763000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.1477830909999991</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.1490614870000009</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.1462974260000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.1434672199999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.1441668600000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.1411892569999988</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0.1490746019999989</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0.1482669090000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0.1367838639999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0.1417702940000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0.1431430589999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0.1443729890000007</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0.1396186310000012</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.1489015449999975</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.147861209000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0.1464322779999989</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0.1487920659999986</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0.1453007100000008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0.1401409380000018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0.1394495659999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0.1460622170000008</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0.1420502640000016</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0.1336813859999992</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0.1438982939999995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0.1489386090000018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0.1474338420000016</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0.1406219039999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0.1500898500000005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.1476967049999978</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0.1459926510000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0.1384625430000028</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.141145636000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.1419045770000018</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.1474523730000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.1483572869999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.1444488250000013</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.1368847899999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.1463410459999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.1408223299999989</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.1463034129999983</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.139196965</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0.1457551620000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0.1468644929999989</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0.1499401709999972</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.1473160940000007</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0.1425169749999995</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0.1468485269999995</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0.1395966780000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0.1387011730000012</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0.1362974799999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0.1317640759999996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.1386803609999987</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.132572340000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.1355197230000016</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.1478586429999993</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.1430566730000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.1383425150000015</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.1470090400000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.1481611359999988</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.1438318649999992</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.1423211109999976</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.1444841789999991</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.1403647419999992</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.1399610380000027</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.133021375000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.1432816189999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.1459219460000014</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.1453657130000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.1443367809999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.1364340439999978</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.1368839350000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.1372719579999995</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.1386270459999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.1345267119999995</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.1307645089999987</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.1302624439999995</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.1332497419999967</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.1454136099999985</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.1368582750000016</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.1337928609999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.1394723740000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.1420220389999969</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.1477180880000013</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.1413586069999972</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.1475373340000026</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.1482289899999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0.1475381879999986</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0.1501836489999988</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.1488459499999983</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.1479193700000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.1455142510000016</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0.1364887829999972</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0.1331448239999986</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0.1398994559999984</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0.1418985900000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0.1473825229999974</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0.1480855840000004</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0.1474355519999975</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0.1472958519999992</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0.1387162830000008</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0.1404015210000011</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0.1459028440000019</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.1393281120000012</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.1395758659999977</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.1392237650000006</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.1398492779999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.1411573250000018</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.1379986820000028</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.140585411</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.1437420579999973</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.1379792950000009</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.139092048000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.1393771500000014</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.1407350899999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.1470429670000009</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.1452405540000008</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.149402184000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.1475495930000008</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.1466301399999992</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.1459926520000003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.1448442619999994</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0.1295605240000022</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.1350712569999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0.1462267200000014</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.1336728329999985</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>0.133630636999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>0.1322324979999934</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>0.1332696990000031</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>0.1330028439999964</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>0.1340072570000004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>0.1357783099999992</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>0.1392231949999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>0.1424590999999964</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>0.1403789969999991</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>0.1387567680000004</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>0.1345646310000035</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>0.1434298719999987</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>0.1405500589999988</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>0.1482908580000029</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>0.1469608579999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>0.1410190510000007</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>0.1465446079999992</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>0.1442617989999988</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>0.1416881849999996</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>0.1488339759999988</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>0.1486657660000006</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>0.150371530000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>0.1477220800000012</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0.1443621539999995</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0.1316845329999978</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>0.1379120119999939</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>0.140841432000002</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>0.1486632000000014</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>0.144051392999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>0.1364659750000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.1427005809999997</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.1389626120000003</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.1460305710000043</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>0.1420499789999994</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.1464439679999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0.137432754999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>0.1321560910000059</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>0.1333689139999947</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>0.1359744599999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>0.1441383490000021</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>0.1464356999999978</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>0.1482010500000044</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>0.1472003430000015</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>0.1411578960000028</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>0.1485477350000011</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>0.149247373999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>0.1486612049999962</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>0.1427607369999961</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>0.1404750760000013</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>0.1404300300000045</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>0.1475524430000021</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>0.1450874539999987</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>0.1317794719999981</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>0.1360232119999978</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>0.1372967610000018</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>0.1453272240000061</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>0.1403553339999988</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>0.1486258520000021</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0.1487310539999953</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0.1429566030000018</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>0.1335707660000054</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0.135613805999995</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>0.1491162269999933</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>0.1495624110000051</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>0.1470640650000021</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0.1426404249999962</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>0.1349235739999983</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>0.1460824589999987</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>0.1457716979999972</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>0.1423641609999962</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>0.1450281520000019</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0.1385275470000025</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>0.1442190330000059</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>0.1380482900000004</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>0.1348528689999995</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>0.1354803779999969</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>0.1491681150000019</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>0.1489186520000061</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>0.1465682719999961</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>0.1367582039999959</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>0.1341184469999988</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>0.1491082439999971</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>0.1472260020000036</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>0.1404628180000032</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>0.143395089000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>0.1372160769999979</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>0.1445831079999991</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>0.1353763159999986</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>0.1497443059999952</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>0.1475059720000047</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>0.149013876000005</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>0.1464955709999956</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>0.1453044159999948</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>0.1439786919999975</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>0.1321894479999983</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>0.1396568350000038</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>0.149545590999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>0.1473631360000027</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>0.1491005459999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>0.144552032</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>0.1423450590000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>0.1461123950000029</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>0.1393081550000019</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>0.1414176230000024</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>0.1456471080000057</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>0.1371080250000034</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>0.1354917820000026</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>0.144381826</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>0.1301686460000013</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>0.1333178810000035</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>0.1520832819999995</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>0.1408308829999996</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>0.1448647899999997</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>0.1389506379999972</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>0.1495578489999971</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>0.1471581480000026</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>0.1367217109999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>0.1400562620000017</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>0.1475273550000011</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>0.1455416199999959</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>0.1394469990000005</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>0.1448060580000003</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>0.1289193300000022</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>0.1307967259999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>0.1295169029999954</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>0.1346088220000041</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>0.1479475950000051</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>0.1391898380000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>0.1384346030000003</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>0.1443547420000044</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>0.1331089009999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>0.1345161640000043</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>0.1369247039999948</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>0.1444565230000023</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>0.1383077329999978</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>0.1387319640000015</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>0.1374353210000052</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>0.1396140689999967</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>0.1465226560000019</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>0.1360115230000005</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>0.1491749580000032</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>0.1416143430000005</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>0.1344867979999975</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>0.1594694140000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>0.1500952670000046</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>0.1468952849999994</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>0.1409871189999947</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>0.1455042719999966</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>0.1466931470000006</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>0.1473896509999975</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>0.1458914409999963</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>0.1418133449999956</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>0.1487855100000033</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>0.1429497600000005</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>0.1359220010000044</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>0.1488852940000029</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>0.1482133099999956</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>0.1460778969999978</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>0.1479236460000024</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>0.1466686280000005</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>0.1384591209999968</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>0.1389486409999989</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>0.1464947159999994</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>0.1432622319999979</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>0.1431359310000033</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>0.1387918359999958</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>0.1488989789999948</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>0.1487852240000009</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>0.1485448829999996</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>0.1410740760000024</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>0.1406036569999998</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>0.1479130980000036</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>0.1489283450000016</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>0.1480573590000063</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>0.1479253570000054</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>0.1449369190000027</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>0.1351043289999936</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>0.1363852910000034</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>0.1331565129999959</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>0.1408793510000024</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>0.1387023139999997</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>0.1383177109999991</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>0.1385309670000012</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>0.1465594340000038</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>0.1411348019999963</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>0.1407487740000022</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>0.1445583040000002</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>0.1383393790000014</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>0.1417338010000009</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>0.1453716999999983</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>0.1401244010000013</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>0.1477132409999982</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>0.1388901959999984</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>0.147358288999996</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>0.1431963730000021</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>0.1364967660000005</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>0.1358193639999996</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>0.1364853620000019</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>0.1396881960000016</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>0.1469876570000039</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>0.1484807349999997</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>0.1457602939999987</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>0.1416428540000041</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>0.1481294889999987</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>0.1399356640000065</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>0.1419328019999995</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>0.145127653000003</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>0.1453032750000034</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>0.1419846909999976</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>0.1479892199999995</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>0.148344741999999</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>0.1435704270000002</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>0.1369412399999987</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>0.1410897559999995</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>0.1484602079999959</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>0.1486392510000059</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>0.1494919920000015</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>0.1491102409999954</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>0.1454047710000026</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>0.144344193000002</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>0.1326208070000021</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>0.1419998009999901</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>0.1434552449999984</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>0.1436699269999906</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>0.1488299850000061</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>0.1480947070000127</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>0.1501195000000024</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>0.1491803750000003</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>0.1482919970000012</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>0.149349725999997</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>0.1479977730000002</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>0.1489320519999922</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>0.1487427440000033</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>0.1455253700000014</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>0.1361341159999938</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>0.1479250720000067</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>0.1478170179999978</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>0.1482127399999911</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>0.1474663430000049</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>0.1415453489999976</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>0.1439270890000017</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>0.1553884669999945</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>0.1334185219999995</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>0.1325338510000051</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>0.1339949980000057</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>0.146331067999995</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>0.1375807230000134</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>0.1288383610000068</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>0.1345577889999987</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>0.1457374860000016</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>0.1394646760000029</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>0.1398752220000006</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>0.1429437729999989</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>0.1384748020000046</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>0.1392363099999869</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>0.1391370939999916</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>0.1396126439999961</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>0.1475858010000053</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>0.1404032309999934</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>0.1402689479999992</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>0.1475954940000008</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>0.1444456899999977</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>0.1333660630000111</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>0.1435801209999994</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>0.1370974750000045</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>0.1408206199999995</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>0.1471675559999994</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>0.1486081759999962</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>0.147097420999998</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>0.1390986050000009</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>0.1413794199999927</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>0.1438307250000008</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>0.140469944000003</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>0.1438615160000012</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>0.1469925029999928</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>0.1388288990000035</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>0.1322687059999907</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>0.1455188120000059</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>0.143885465000011</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>0.1413848360000003</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>0.1437942310000011</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>0.1348520140000034</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>0.1478902890000029</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>0.1471858029999993</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>0.1481445999999949</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>0.1477768190000006</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>0.1471270720000035</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>0.1423216809999985</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>0.1413289569999989</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>0.1379296879999998</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>0.1322162470000023</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>0.1393420819999989</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>0.1380919110000036</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>0.1418099240000004</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>0.1383513530000045</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>0.1409899699999926</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>0.1457551620000004</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>0.1393529150000035</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>0.14673220600001</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>0.1457320689999904</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>0.14008448700001</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>0.1436733489999966</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>0.1410509819999959</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>0.1387390919999945</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>0.1323006379999896</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>0.1445255179999947</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>0.1439681430000093</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>0.1449853870000055</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>0.1433802639999868</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>0.1348006960000134</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>0.1347613510000087</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>0.141223753999995</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>0.1499264859999982</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>0.1491732479999968</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>0.144888452999993</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>0.1362187910000046</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>0.1356026870000022</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>0.1354678339999964</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>0.1422834780000102</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>0.1451182440000025</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>0.1475122450000015</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>0.1472590740000044</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>0.1492351140000068</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>0.1487031150000035</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>0.1475940680000036</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>0.1458600799999914</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>0.1385611879999971</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>0.1471989169999972</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>0.1423986589999942</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>0.1462518099999954</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>0.1391479279999999</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>0.1353423890000016</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>0.1354900719999961</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>0.14421390199999</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>0.1436505400000101</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>0.1482301309999912</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>0.1471983480000034</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>0.1470298520000028</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>0.1368118030000005</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>0.1387373809999985</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>0.1433531790000018</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>0.1476074690000075</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>0.1448468279999986</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>0.1346387569999905</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>0.1490181519999965</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>0.1445092669999894</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>0.1308865330000089</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>0.1410025149999967</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>0.1473691229999901</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>0.1460667789999945</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>0.1411966689999957</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>0.1466033399999986</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>0.1444291539999938</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>0.1458312849999999</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>0.1493494399999946</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>0.1489634120000005</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>0.1493816570000064</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>0.1456060529999945</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>0.1397092929999957</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>0.1372500049999985</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>0.1311154689999938</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>0.1406019470000075</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>0.133511464999998</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>0.1294410659999983</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>0.1323496750000004</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>0.1435191080000067</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>0.1337338440000053</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>0.1392049479999997</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>0.1355798780000015</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>0.1491852219999998</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>0.1497679699999992</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>0.1472257169999978</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>0.1439091280000042</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>0.1340617119999905</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>0.1460280040000015</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>0.1446321460000064</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>0.1493876440000008</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>0.1484944200000058</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>0.1467390480000006</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>0.138681216000009</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602">
+        <v>0.1388040949999976</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603">
+        <v>0.1392973210000008</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604">
+        <v>0.1361135890000043</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <v>0.1476222940000014</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <v>0.1442757689999894</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <v>0.1391208430000006</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <v>0.149655640000006</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609">
+        <v>0.1401962469999916</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610">
+        <v>0.1320129700000052</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611">
+        <v>0.1408334489999987</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612">
+        <v>0.1485465940000097</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613">
+        <v>0.1471572930000065</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614">
+        <v>0.1444599440000047</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615">
+        <v>0.1388847790000085</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616">
+        <v>0.1398626780000001</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617">
+        <v>0.1378076639999932</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618">
+        <v>0.1357101700000101</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619">
+        <v>0.1350780989999976</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620">
+        <v>0.1396448600000042</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621">
+        <v>0.1475701199999975</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622">
+        <v>0.1477833760000067</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623">
+        <v>0.1466720500000065</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624">
+        <v>0.1369837200000035</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625">
+        <v>0.1461138199999965</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626">
+        <v>0.137586424999995</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627">
+        <v>0.1416311640000032</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628">
+        <v>0.1463350589999948</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="1">
+        <v>627</v>
+      </c>
+      <c r="B629">
+        <v>0.1473300640000019</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="1">
+        <v>628</v>
+      </c>
+      <c r="B630">
+        <v>0.1400548370000081</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="1">
+        <v>629</v>
+      </c>
+      <c r="B631">
+        <v>0.1460453949999874</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="1">
+        <v>630</v>
+      </c>
+      <c r="B632">
+        <v>0.1317925870000067</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="1">
+        <v>631</v>
+      </c>
+      <c r="B633">
+        <v>0.1332277890000029</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="1">
+        <v>632</v>
+      </c>
+      <c r="B634">
+        <v>0.14915129500001</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="1">
+        <v>633</v>
+      </c>
+      <c r="B635">
+        <v>0.147220015000002</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="1">
+        <v>634</v>
+      </c>
+      <c r="B636">
+        <v>0.1422213259999978</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="1">
+        <v>635</v>
+      </c>
+      <c r="B637">
+        <v>0.1478614940000114</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="1">
+        <v>636</v>
+      </c>
+      <c r="B638">
+        <v>0.1432645119999876</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="1">
+        <v>637</v>
+      </c>
+      <c r="B639">
+        <v>0.1354780970000036</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="1">
+        <v>638</v>
+      </c>
+      <c r="B640">
+        <v>0.1443570229999978</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="1">
+        <v>639</v>
+      </c>
+      <c r="B641">
+        <v>0.1410310250000038</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="1">
+        <v>640</v>
+      </c>
+      <c r="B642">
+        <v>0.1467578649999979</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="1">
+        <v>641</v>
+      </c>
+      <c r="B643">
+        <v>0.1399336679999976</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="1">
+        <v>642</v>
+      </c>
+      <c r="B644">
+        <v>0.1405038720000107</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="1">
+        <v>643</v>
+      </c>
+      <c r="B645">
+        <v>0.147175825000005</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="1">
+        <v>644</v>
+      </c>
+      <c r="B646">
+        <v>0.1403998090000016</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="1">
+        <v>645</v>
+      </c>
+      <c r="B647">
+        <v>0.1480336959999988</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="1">
+        <v>646</v>
+      </c>
+      <c r="B648">
+        <v>0.1438509670000059</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="1">
+        <v>647</v>
+      </c>
+      <c r="B649">
+        <v>0.1471875129999916</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="1">
+        <v>648</v>
+      </c>
+      <c r="B650">
+        <v>0.1489981959999938</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="1">
+        <v>649</v>
+      </c>
+      <c r="B651">
+        <v>0.1485962020000073</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="1">
+        <v>650</v>
+      </c>
+      <c r="B652">
+        <v>0.1452394129999988</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="1">
+        <v>651</v>
+      </c>
+      <c r="B653">
+        <v>0.1447541690000094</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="1">
+        <v>652</v>
+      </c>
+      <c r="B654">
+        <v>0.144538917999995</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="1">
+        <v>653</v>
+      </c>
+      <c r="B655">
+        <v>0.1486549330000031</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="1">
+        <v>654</v>
+      </c>
+      <c r="B656">
+        <v>0.1460813180000002</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="1">
+        <v>655</v>
+      </c>
+      <c r="B657">
+        <v>0.1425426350000123</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="1">
+        <v>656</v>
+      </c>
+      <c r="B658">
+        <v>0.1480405379999894</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="1">
+        <v>657</v>
+      </c>
+      <c r="B659">
+        <v>0.1492804450000023</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="1">
+        <v>658</v>
+      </c>
+      <c r="B660">
+        <v>0.1472319890000051</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="1">
+        <v>659</v>
+      </c>
+      <c r="B661">
+        <v>0.1477867979999985</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="1">
+        <v>660</v>
+      </c>
+      <c r="B662">
+        <v>0.1452816070000011</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="1">
+        <v>661</v>
+      </c>
+      <c r="B663">
+        <v>0.1352853679999981</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="1">
+        <v>662</v>
+      </c>
+      <c r="B664">
+        <v>0.1444034950000059</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="1">
+        <v>663</v>
+      </c>
+      <c r="B665">
+        <v>0.1373355349999912</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="1">
+        <v>664</v>
+      </c>
+      <c r="B666">
+        <v>0.133550808999999</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="1">
+        <v>665</v>
+      </c>
+      <c r="B667">
+        <v>0.1473146689999965</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="1">
+        <v>666</v>
+      </c>
+      <c r="B668">
+        <v>0.1453548790000099</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="1">
+        <v>667</v>
+      </c>
+      <c r="B669">
+        <v>0.1400824920000048</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="1">
+        <v>668</v>
+      </c>
+      <c r="B670">
+        <v>0.1388816429999906</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="1">
+        <v>669</v>
+      </c>
+      <c r="B671">
+        <v>0.143857238999999</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="1">
+        <v>670</v>
+      </c>
+      <c r="B672">
+        <v>0.1357586379999987</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="1">
+        <v>671</v>
+      </c>
+      <c r="B673">
+        <v>0.1479433180000029</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="1">
+        <v>672</v>
+      </c>
+      <c r="B674">
+        <v>0.1488174409999914</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="1">
+        <v>673</v>
+      </c>
+      <c r="B675">
+        <v>0.1479133819999987</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="1">
+        <v>674</v>
+      </c>
+      <c r="B676">
+        <v>0.1430161890000079</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="1">
+        <v>675</v>
+      </c>
+      <c r="B677">
+        <v>0.1392996009999905</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="1">
+        <v>676</v>
+      </c>
+      <c r="B678">
+        <v>0.1403784270000017</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="1">
+        <v>677</v>
+      </c>
+      <c r="B679">
+        <v>0.1442364239999989</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="1">
+        <v>678</v>
+      </c>
+      <c r="B680">
+        <v>0.1356847960000067</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="1">
+        <v>679</v>
+      </c>
+      <c r="B681">
+        <v>0.1428491190000045</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="1">
+        <v>680</v>
+      </c>
+      <c r="B682">
+        <v>0.1403767160000058</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="1">
+        <v>681</v>
+      </c>
+      <c r="B683">
+        <v>0.1402911859999989</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="1">
+        <v>682</v>
+      </c>
+      <c r="B684">
+        <v>0.1425255289999967</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="1">
+        <v>683</v>
+      </c>
+      <c r="B685">
+        <v>0.1456995670000083</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="1">
+        <v>684</v>
+      </c>
+      <c r="B686">
+        <v>0.1376223479999936</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="1">
+        <v>685</v>
+      </c>
+      <c r="B687">
+        <v>0.1360964830000029</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="1">
+        <v>686</v>
+      </c>
+      <c r="B688">
+        <v>0.1384548449999983</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="1">
+        <v>687</v>
+      </c>
+      <c r="B689">
+        <v>0.1473346259999886</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="1">
+        <v>688</v>
+      </c>
+      <c r="B690">
+        <v>0.1486064650000003</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="1">
+        <v>689</v>
+      </c>
+      <c r="B691">
+        <v>0.1489870759999974</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="1">
+        <v>690</v>
+      </c>
+      <c r="B692">
+        <v>0.146972832000003</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="1">
+        <v>691</v>
+      </c>
+      <c r="B693">
+        <v>0.1434649400000012</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="1">
+        <v>692</v>
+      </c>
+      <c r="B694">
+        <v>0.1357460929999945</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="1">
+        <v>693</v>
+      </c>
+      <c r="B695">
+        <v>0.148299410000007</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="1">
+        <v>694</v>
+      </c>
+      <c r="B696">
+        <v>0.1416813419999983</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="1">
+        <v>695</v>
+      </c>
+      <c r="B697">
+        <v>0.1409606049999894</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="1">
+        <v>696</v>
+      </c>
+      <c r="B698">
+        <v>0.1429950909999889</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="1">
+        <v>697</v>
+      </c>
+      <c r="B699">
+        <v>0.1425825489999966</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="1">
+        <v>698</v>
+      </c>
+      <c r="B700">
+        <v>0.1480815919999969</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="1">
+        <v>699</v>
+      </c>
+      <c r="B701">
+        <v>0.1465084010000055</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="1">
+        <v>700</v>
+      </c>
+      <c r="B702">
+        <v>0.1485531510000015</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="1">
+        <v>701</v>
+      </c>
+      <c r="B703">
+        <v>0.1459746900000027</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="1">
+        <v>702</v>
+      </c>
+      <c r="B704">
+        <v>0.1469220830000069</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="1">
+        <v>703</v>
+      </c>
+      <c r="B705">
+        <v>0.1491934900000018</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="1">
+        <v>704</v>
+      </c>
+      <c r="B706">
+        <v>0.1471025529999963</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="1">
+        <v>705</v>
+      </c>
+      <c r="B707">
+        <v>0.1372853579999997</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="1">
+        <v>706</v>
+      </c>
+      <c r="B708">
+        <v>0.1322852420000089</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="1">
+        <v>707</v>
+      </c>
+      <c r="B709">
+        <v>0.1408363010000073</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="1">
+        <v>708</v>
+      </c>
+      <c r="B710">
+        <v>0.1495706799999965</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="1">
+        <v>709</v>
+      </c>
+      <c r="B711">
+        <v>0.146800915</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="1">
+        <v>710</v>
+      </c>
+      <c r="B712">
+        <v>0.136656993999992</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="1">
+        <v>711</v>
+      </c>
+      <c r="B713">
+        <v>0.133017382999995</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="1">
+        <v>712</v>
+      </c>
+      <c r="B714">
+        <v>0.1413169820000064</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="1">
+        <v>713</v>
+      </c>
+      <c r="B715">
+        <v>0.1455912280000007</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="1">
+        <v>714</v>
+      </c>
+      <c r="B716">
+        <v>0.1461582960000101</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="1">
+        <v>715</v>
+      </c>
+      <c r="B717">
+        <v>0.1479538669999982</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="1">
+        <v>716</v>
+      </c>
+      <c r="B718">
+        <v>0.1468682000000001</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="1">
+        <v>717</v>
+      </c>
+      <c r="B719">
+        <v>0.1382880600000078</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="1">
+        <v>718</v>
+      </c>
+      <c r="B720">
+        <v>0.1413825560000106</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="1">
+        <v>719</v>
+      </c>
+      <c r="B721">
+        <v>0.1389971090000017</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="1">
+        <v>720</v>
+      </c>
+      <c r="B722">
+        <v>0.1332933620000034</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="1">
+        <v>721</v>
+      </c>
+      <c r="B723">
+        <v>0.1453443300000004</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="1">
+        <v>722</v>
+      </c>
+      <c r="B724">
+        <v>0.1448331429999996</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="1">
+        <v>723</v>
+      </c>
+      <c r="B725">
+        <v>0.1405101439999896</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="1">
+        <v>724</v>
+      </c>
+      <c r="B726">
+        <v>0.1499264859999982</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="1">
+        <v>725</v>
+      </c>
+      <c r="B727">
+        <v>0.1471900800000014</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="1">
+        <v>726</v>
+      </c>
+      <c r="B728">
+        <v>0.1476964199999884</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="1">
+        <v>727</v>
+      </c>
+      <c r="B729">
+        <v>0.1398230490000003</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="1">
+        <v>728</v>
+      </c>
+      <c r="B730">
+        <v>0.1529679519999974</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="1">
+        <v>729</v>
+      </c>
+      <c r="B731">
+        <v>0.1502891359999978</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="1">
+        <v>730</v>
+      </c>
+      <c r="B732">
+        <v>0.1437474749999978</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="1">
+        <v>731</v>
+      </c>
+      <c r="B733">
+        <v>0.1403011649999968</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="1">
+        <v>732</v>
+      </c>
+      <c r="B734">
+        <v>0.1477129560000066</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="1">
+        <v>733</v>
+      </c>
+      <c r="B735">
+        <v>0.1447045620000011</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="1">
+        <v>734</v>
+      </c>
+      <c r="B736">
+        <v>0.1344186590000049</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="1">
+        <v>735</v>
+      </c>
+      <c r="B737">
+        <v>0.139562466000001</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="1">
+        <v>736</v>
+      </c>
+      <c r="B738">
+        <v>0.1410324510000009</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="1">
+        <v>737</v>
+      </c>
+      <c r="B739">
+        <v>0.1462612170000028</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="1">
+        <v>738</v>
+      </c>
+      <c r="B740">
+        <v>0.1354997650000058</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="1">
+        <v>739</v>
+      </c>
+      <c r="B741">
+        <v>0.1407584680000014</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="1">
+        <v>740</v>
+      </c>
+      <c r="B742">
+        <v>0.1437882439999925</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="1">
+        <v>741</v>
+      </c>
+      <c r="B743">
+        <v>0.1483139510000058</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="1">
+        <v>742</v>
+      </c>
+      <c r="B744">
+        <v>0.1424548229999942</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="1">
+        <v>743</v>
+      </c>
+      <c r="B745">
+        <v>0.1487461650000057</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="1">
+        <v>744</v>
+      </c>
+      <c r="B746">
+        <v>0.1458478200000002</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="1">
+        <v>745</v>
+      </c>
+      <c r="B747">
+        <v>0.1442458329999994</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="1">
+        <v>746</v>
+      </c>
+      <c r="B748">
+        <v>0.1375137240000015</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="1">
+        <v>747</v>
+      </c>
+      <c r="B749">
+        <v>0.1433836850000034</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="1">
+        <v>748</v>
+      </c>
+      <c r="B750">
+        <v>0.1315414120000042</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="1">
+        <v>749</v>
+      </c>
+      <c r="B751">
+        <v>0.1397571910000011</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="1">
+        <v>750</v>
+      </c>
+      <c r="B752">
+        <v>0.1402461389999985</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="1">
+        <v>751</v>
+      </c>
+      <c r="B753">
+        <v>0.1426649440000034</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="1">
+        <v>752</v>
+      </c>
+      <c r="B754">
+        <v>0.1489924929999944</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="1">
+        <v>753</v>
+      </c>
+      <c r="B755">
+        <v>0.1487527230000012</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="1">
+        <v>754</v>
+      </c>
+      <c r="B756">
+        <v>0.1485602789999945</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="1">
+        <v>755</v>
+      </c>
+      <c r="B757">
+        <v>0.144100715999997</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="1">
+        <v>756</v>
+      </c>
+      <c r="B758">
+        <v>0.1411034409999985</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="1">
+        <v>757</v>
+      </c>
+      <c r="B759">
+        <v>0.1488048960000015</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="1">
+        <v>758</v>
+      </c>
+      <c r="B760">
+        <v>0.1470555110000049</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="1">
+        <v>759</v>
+      </c>
+      <c r="B761">
+        <v>0.1411114229999981</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="1">
+        <v>760</v>
+      </c>
+      <c r="B762">
+        <v>0.1498167230000007</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="1">
+        <v>761</v>
+      </c>
+      <c r="B763">
+        <v>0.1441098399999987</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="1">
+        <v>762</v>
+      </c>
+      <c r="B764">
+        <v>0.1338798170000075</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="1">
+        <v>763</v>
+      </c>
+      <c r="B765">
+        <v>0.1437930919999957</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="1">
+        <v>764</v>
+      </c>
+      <c r="B766">
+        <v>0.1330801060000084</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="1">
+        <v>765</v>
+      </c>
+      <c r="B767">
+        <v>0.1459860949999978</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="1">
+        <v>766</v>
+      </c>
+      <c r="B768">
+        <v>0.1411750009999935</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="1">
+        <v>767</v>
+      </c>
+      <c r="B769">
+        <v>0.1489742459999945</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="1">
+        <v>768</v>
+      </c>
+      <c r="B770">
+        <v>0.1401024489999969</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="1">
+        <v>769</v>
+      </c>
+      <c r="B771">
+        <v>0.1378983259999984</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="1">
+        <v>770</v>
+      </c>
+      <c r="B772">
+        <v>0.1481349060000099</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="1">
+        <v>771</v>
+      </c>
+      <c r="B773">
+        <v>0.1486526519999956</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="1">
+        <v>772</v>
+      </c>
+      <c r="B774">
+        <v>0.1469143860000059</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="1">
+        <v>773</v>
+      </c>
+      <c r="B775">
+        <v>0.1406227589999958</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="1">
+        <v>774</v>
+      </c>
+      <c r="B776">
+        <v>0.1482118840000055</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="1">
+        <v>775</v>
+      </c>
+      <c r="B777">
+        <v>0.145746324000001</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="1">
+        <v>776</v>
+      </c>
+      <c r="B778">
+        <v>0.1422441330000055</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="1">
+        <v>777</v>
+      </c>
+      <c r="B779">
+        <v>0.1431684329999996</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="1">
+        <v>778</v>
+      </c>
+      <c r="B780">
+        <v>0.1437896700000039</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="1">
+        <v>779</v>
+      </c>
+      <c r="B781">
+        <v>0.1493870740000034</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="1">
+        <v>780</v>
+      </c>
+      <c r="B782">
+        <v>0.1479316289999986</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="1">
+        <v>781</v>
+      </c>
+      <c r="B783">
+        <v>0.1452134680000086</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="1">
+        <v>782</v>
+      </c>
+      <c r="B784">
+        <v>0.1451641459999991</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="1">
+        <v>783</v>
+      </c>
+      <c r="B785">
+        <v>0.1488681889999981</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="1">
+        <v>784</v>
+      </c>
+      <c r="B786">
+        <v>0.1463210889999971</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="1">
+        <v>785</v>
+      </c>
+      <c r="B787">
+        <v>0.1491678300000103</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="1">
+        <v>786</v>
+      </c>
+      <c r="B788">
+        <v>0.1458415479999928</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="1">
+        <v>787</v>
+      </c>
+      <c r="B789">
+        <v>0.1386216300000029</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="1">
+        <v>788</v>
+      </c>
+      <c r="B790">
+        <v>0.1382182100000051</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="1">
+        <v>789</v>
+      </c>
+      <c r="B791">
+        <v>0.1384702410000074</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="1">
+        <v>790</v>
+      </c>
+      <c r="B792">
+        <v>0.1453292199999936</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="1">
+        <v>791</v>
+      </c>
+      <c r="B793">
+        <v>0.1480935670000036</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="1">
+        <v>792</v>
+      </c>
+      <c r="B794">
+        <v>0.1476086079999988</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="1">
+        <v>793</v>
+      </c>
+      <c r="B795">
+        <v>0.1394062300000058</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="1">
+        <v>794</v>
+      </c>
+      <c r="B796">
+        <v>0.1397058710000039</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="1">
+        <v>795</v>
+      </c>
+      <c r="B797">
+        <v>0.1387088710000057</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="1">
+        <v>796</v>
+      </c>
+      <c r="B798">
+        <v>0.137046158000004</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="1">
+        <v>797</v>
+      </c>
+      <c r="B799">
+        <v>0.136076241000012</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="1">
+        <v>798</v>
+      </c>
+      <c r="B800">
+        <v>0.139165319</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="1">
+        <v>799</v>
+      </c>
+      <c r="B801">
+        <v>0.1360819429999935</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="1">
+        <v>800</v>
+      </c>
+      <c r="B802">
+        <v>0.1468525190000065</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="1">
+        <v>801</v>
+      </c>
+      <c r="B803">
+        <v>0.1392505639999939</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="1">
+        <v>802</v>
+      </c>
+      <c r="B804">
+        <v>0.1443376349999994</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="1">
+        <v>803</v>
+      </c>
+      <c r="B805">
+        <v>0.1362122350000021</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="1">
+        <v>804</v>
+      </c>
+      <c r="B806">
+        <v>0.1343060439999988</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="1">
+        <v>805</v>
+      </c>
+      <c r="B807">
+        <v>0.1400103610000087</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="1">
+        <v>806</v>
+      </c>
+      <c r="B808">
+        <v>0.1336688410000022</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="1">
+        <v>807</v>
+      </c>
+      <c r="B809">
+        <v>0.146429143000006</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="1">
+        <v>808</v>
+      </c>
+      <c r="B810">
+        <v>0.1474612110000066</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="1">
+        <v>809</v>
+      </c>
+      <c r="B811">
+        <v>0.1474920019999928</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="1">
+        <v>810</v>
+      </c>
+      <c r="B812">
+        <v>0.145053242000003</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="1">
+        <v>811</v>
+      </c>
+      <c r="B813">
+        <v>0.1392596880000099</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="1">
+        <v>812</v>
+      </c>
+      <c r="B814">
+        <v>0.1500202849999965</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="1">
+        <v>813</v>
+      </c>
+      <c r="B815">
+        <v>0.1465534470000023</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="1">
+        <v>814</v>
+      </c>
+      <c r="B816">
+        <v>0.1430264530000045</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="1">
+        <v>815</v>
+      </c>
+      <c r="B817">
+        <v>0.144619316999993</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="1">
+        <v>816</v>
+      </c>
+      <c r="B818">
+        <v>0.1464562280000052</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="1">
+        <v>817</v>
+      </c>
+      <c r="B819">
+        <v>0.1392568360000013</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="1">
+        <v>818</v>
+      </c>
+      <c r="B820">
+        <v>0.1463105400000018</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="1">
+        <v>819</v>
+      </c>
+      <c r="B821">
+        <v>0.1406304570000003</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="1">
+        <v>820</v>
+      </c>
+      <c r="B822">
+        <v>0.1459336359999952</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="1">
+        <v>821</v>
+      </c>
+      <c r="B823">
+        <v>0.1392186329999987</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="1">
+        <v>822</v>
+      </c>
+      <c r="B824">
+        <v>0.1375867099999937</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="1">
+        <v>823</v>
+      </c>
+      <c r="B825">
+        <v>0.1413714370000037</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="1">
+        <v>824</v>
+      </c>
+      <c r="B826">
+        <v>0.145940478</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="1">
+        <v>825</v>
+      </c>
+      <c r="B827">
+        <v>0.1365178630000088</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="1">
+        <v>826</v>
+      </c>
+      <c r="B828">
+        <v>0.147755152000002</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="1">
+        <v>827</v>
+      </c>
+      <c r="B829">
+        <v>0.1474794580000065</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="1">
+        <v>828</v>
+      </c>
+      <c r="B830">
+        <v>0.1438769119999961</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="1">
+        <v>829</v>
+      </c>
+      <c r="B831">
+        <v>0.1384653940000078</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="1">
+        <v>830</v>
+      </c>
+      <c r="B832">
+        <v>0.1341238639999887</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="1">
+        <v>831</v>
+      </c>
+      <c r="B833">
+        <v>0.1335642089999993</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="1">
+        <v>832</v>
+      </c>
+      <c r="B834">
+        <v>0.1386048090000003</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="1">
+        <v>833</v>
+      </c>
+      <c r="B835">
+        <v>0.1467304949999999</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="1">
+        <v>834</v>
+      </c>
+      <c r="B836">
+        <v>0.1446857450000039</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="1">
+        <v>835</v>
+      </c>
+      <c r="B837">
+        <v>0.1381654670000074</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="1">
+        <v>836</v>
+      </c>
+      <c r="B838">
+        <v>0.1405072929999989</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="1">
+        <v>837</v>
+      </c>
+      <c r="B839">
+        <v>0.1451094060000031</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="1">
+        <v>838</v>
+      </c>
+      <c r="B840">
+        <v>0.140422903000001</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="1">
+        <v>839</v>
+      </c>
+      <c r="B841">
+        <v>0.137676232000004</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="1">
+        <v>840</v>
+      </c>
+      <c r="B842">
+        <v>0.1378732369999938</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="1">
+        <v>841</v>
+      </c>
+      <c r="B843">
+        <v>0.1389209870000059</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="1">
+        <v>842</v>
+      </c>
+      <c r="B844">
+        <v>0.1476049029999871</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="1">
+        <v>843</v>
+      </c>
+      <c r="B845">
+        <v>0.147846954000002</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="1">
+        <v>844</v>
+      </c>
+      <c r="B846">
+        <v>0.147513955000008</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="1">
+        <v>845</v>
+      </c>
+      <c r="B847">
+        <v>0.145691584000005</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="1">
+        <v>846</v>
+      </c>
+      <c r="B848">
+        <v>0.1312947980000132</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="1">
+        <v>847</v>
+      </c>
+      <c r="B849">
+        <v>0.1432069219999903</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="1">
+        <v>848</v>
+      </c>
+      <c r="B850">
+        <v>0.1429739940000019</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="1">
+        <v>849</v>
+      </c>
+      <c r="B851">
+        <v>0.1380488599999978</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="1">
+        <v>850</v>
+      </c>
+      <c r="B852">
+        <v>0.137397687999993</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="1">
+        <v>851</v>
+      </c>
+      <c r="B853">
+        <v>0.1359066050000024</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="1">
+        <v>852</v>
+      </c>
+      <c r="B854">
+        <v>0.1449049889999969</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="1">
+        <v>853</v>
+      </c>
+      <c r="B855">
+        <v>0.1366202160000114</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="1">
+        <v>854</v>
+      </c>
+      <c r="B856">
+        <v>0.1451233770000044</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="1">
+        <v>855</v>
+      </c>
+      <c r="B857">
+        <v>0.1337863029999937</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="1">
+        <v>856</v>
+      </c>
+      <c r="B858">
+        <v>0.1439062770000135</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="1">
+        <v>857</v>
+      </c>
+      <c r="B859">
+        <v>0.130245623999997</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="1">
+        <v>858</v>
+      </c>
+      <c r="B860">
+        <v>0.1304349309999964</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="1">
+        <v>859</v>
+      </c>
+      <c r="B861">
+        <v>0.1349854409999978</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="1">
+        <v>860</v>
+      </c>
+      <c r="B862">
+        <v>0.1354287740000046</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="1">
+        <v>861</v>
+      </c>
+      <c r="B863">
+        <v>0.1405777130000132</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="1">
+        <v>862</v>
+      </c>
+      <c r="B864">
+        <v>0.1476730410000044</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="1">
+        <v>863</v>
+      </c>
+      <c r="B865">
+        <v>0.1435843969999979</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="1">
+        <v>864</v>
+      </c>
+      <c r="B866">
+        <v>0.1339650620000015</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="1">
+        <v>865</v>
+      </c>
+      <c r="B867">
+        <v>0.1415450639999989</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="1">
+        <v>866</v>
+      </c>
+      <c r="B868">
+        <v>0.148591070000009</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="1">
+        <v>867</v>
+      </c>
+      <c r="B869">
+        <v>0.1455079790000013</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="1">
+        <v>868</v>
+      </c>
+      <c r="B870">
+        <v>0.1420012269999944</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="1">
+        <v>869</v>
+      </c>
+      <c r="B871">
+        <v>0.1470061889999954</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="1">
+        <v>870</v>
+      </c>
+      <c r="B872">
+        <v>0.1378954750000077</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="1">
+        <v>871</v>
+      </c>
+      <c r="B873">
+        <v>0.1378125109999928</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="1">
+        <v>872</v>
+      </c>
+      <c r="B874">
+        <v>0.1421161230000081</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="1">
+        <v>873</v>
+      </c>
+      <c r="B875">
+        <v>0.1390775069999961</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="1">
+        <v>874</v>
+      </c>
+      <c r="B876">
+        <v>0.1361919919999934</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="1">
+        <v>875</v>
+      </c>
+      <c r="B877">
+        <v>0.1419302360000074</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="1">
+        <v>876</v>
+      </c>
+      <c r="B878">
+        <v>0.1436722079999981</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="1">
+        <v>877</v>
+      </c>
+      <c r="B879">
+        <v>0.148360138000001</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="1">
+        <v>878</v>
+      </c>
+      <c r="B880">
+        <v>0.1487256380000019</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="1">
+        <v>879</v>
+      </c>
+      <c r="B881">
+        <v>0.1495609859999973</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="1">
+        <v>880</v>
+      </c>
+      <c r="B882">
+        <v>0.1485160879999938</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="1">
+        <v>881</v>
+      </c>
+      <c r="B883">
+        <v>0.1460168849999945</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="1">
+        <v>882</v>
+      </c>
+      <c r="B884">
+        <v>0.1366786600000012</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="1">
+        <v>883</v>
+      </c>
+      <c r="B885">
+        <v>0.1482284199999953</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="1">
+        <v>884</v>
+      </c>
+      <c r="B886">
+        <v>0.1448074840000118</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="1">
+        <v>885</v>
+      </c>
+      <c r="B887">
+        <v>0.1404921829999921</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="1">
+        <v>886</v>
+      </c>
+      <c r="B888">
+        <v>0.1473916460000027</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="1">
+        <v>887</v>
+      </c>
+      <c r="B889">
+        <v>0.136388427</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" s="1">
+        <v>888</v>
+      </c>
+      <c r="B890">
+        <v>0.1331436840000038</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="1">
+        <v>889</v>
+      </c>
+      <c r="B891">
+        <v>0.1491701119999931</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="1">
+        <v>890</v>
+      </c>
+      <c r="B892">
+        <v>0.1491279170000155</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="1">
+        <v>891</v>
+      </c>
+      <c r="B893">
+        <v>0.1488231419999977</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" s="1">
+        <v>892</v>
+      </c>
+      <c r="B894">
+        <v>0.1489043969999955</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" s="1">
+        <v>893</v>
+      </c>
+      <c r="B895">
+        <v>0.1493383220000055</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="1">
+        <v>894</v>
+      </c>
+      <c r="B896">
+        <v>0.1487815179999927</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" s="1">
+        <v>895</v>
+      </c>
+      <c r="B897">
+        <v>0.1438147590000085</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" s="1">
+        <v>896</v>
+      </c>
+      <c r="B898">
+        <v>0.1474147399999879</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="1">
+        <v>897</v>
+      </c>
+      <c r="B899">
+        <v>0.1459533080000028</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="1">
+        <v>898</v>
+      </c>
+      <c r="B900">
+        <v>0.1453249429999914</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="1">
+        <v>899</v>
+      </c>
+      <c r="B901">
+        <v>0.1403444990000082</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="1">
+        <v>900</v>
+      </c>
+      <c r="B902">
+        <v>0.1478053289999934</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="1">
+        <v>901</v>
+      </c>
+      <c r="B903">
+        <v>0.1446945829999891</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="1">
+        <v>902</v>
+      </c>
+      <c r="B904">
+        <v>0.1331761849999964</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="1">
+        <v>903</v>
+      </c>
+      <c r="B905">
+        <v>0.1493577079999966</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="1">
+        <v>904</v>
+      </c>
+      <c r="B906">
+        <v>0.147533057000004</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="1">
+        <v>905</v>
+      </c>
+      <c r="B907">
+        <v>0.1467353419999995</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="1">
+        <v>906</v>
+      </c>
+      <c r="B908">
+        <v>0.1422994430000131</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="1">
+        <v>907</v>
+      </c>
+      <c r="B909">
+        <v>0.1407065790000104</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="1">
+        <v>908</v>
+      </c>
+      <c r="B910">
+        <v>0.1419615970000052</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="1">
+        <v>909</v>
+      </c>
+      <c r="B911">
+        <v>0.1398946090000095</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="1">
+        <v>910</v>
+      </c>
+      <c r="B912">
+        <v>0.1396240480000017</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="1">
+        <v>911</v>
+      </c>
+      <c r="B913">
+        <v>0.1491932049999889</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="1">
+        <v>912</v>
+      </c>
+      <c r="B914">
+        <v>0.1465431830000057</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="1">
+        <v>913</v>
+      </c>
+      <c r="B915">
+        <v>0.1364163680000274</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" s="1">
+        <v>914</v>
+      </c>
+      <c r="B916">
+        <v>0.1471515899999929</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="1">
+        <v>915</v>
+      </c>
+      <c r="B917">
+        <v>0.1449243750000164</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="1">
+        <v>916</v>
+      </c>
+      <c r="B918">
+        <v>0.1345192999999938</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="1">
+        <v>917</v>
+      </c>
+      <c r="B919">
+        <v>0.1475604270000019</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="1">
+        <v>918</v>
+      </c>
+      <c r="B920">
+        <v>0.1474620660000028</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="1">
+        <v>919</v>
+      </c>
+      <c r="B921">
+        <v>0.1476961350000181</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="1">
+        <v>920</v>
+      </c>
+      <c r="B922">
+        <v>0.1395644620000098</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="1">
+        <v>921</v>
+      </c>
+      <c r="B923">
+        <v>0.1485235000000102</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" s="1">
+        <v>922</v>
+      </c>
+      <c r="B924">
+        <v>0.1485006919999989</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" s="1">
+        <v>923</v>
+      </c>
+      <c r="B925">
+        <v>0.144613043999982</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="1">
+        <v>924</v>
+      </c>
+      <c r="B926">
+        <v>0.1482418199999813</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" s="1">
+        <v>925</v>
+      </c>
+      <c r="B927">
+        <v>0.1468479570000056</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" s="1">
+        <v>926</v>
+      </c>
+      <c r="B928">
+        <v>0.1407519100000059</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" s="1">
+        <v>927</v>
+      </c>
+      <c r="B929">
+        <v>0.1484593529999927</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" s="1">
+        <v>928</v>
+      </c>
+      <c r="B930">
+        <v>0.1482766019999815</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="1">
+        <v>929</v>
+      </c>
+      <c r="B931">
+        <v>0.146750451999992</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="1">
+        <v>930</v>
+      </c>
+      <c r="B932">
+        <v>0.141318407</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="1">
+        <v>931</v>
+      </c>
+      <c r="B933">
+        <v>0.142685470999993</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="1">
+        <v>932</v>
+      </c>
+      <c r="B934">
+        <v>0.1409195500000067</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="1">
+        <v>933</v>
+      </c>
+      <c r="B935">
+        <v>0.1479381860000046</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="1">
+        <v>934</v>
+      </c>
+      <c r="B936">
+        <v>0.1483735369999977</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" s="1">
+        <v>935</v>
+      </c>
+      <c r="B937">
+        <v>0.1489904969999998</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="1">
+        <v>936</v>
+      </c>
+      <c r="B938">
+        <v>0.1461297859999888</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="1">
+        <v>937</v>
+      </c>
+      <c r="B939">
+        <v>0.1397189859999912</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="1">
+        <v>938</v>
+      </c>
+      <c r="B940">
+        <v>0.1359986930000048</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="1">
+        <v>939</v>
+      </c>
+      <c r="B941">
+        <v>0.1325167450000038</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="1">
+        <v>940</v>
+      </c>
+      <c r="B942">
+        <v>0.137433609999988</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="1">
+        <v>941</v>
+      </c>
+      <c r="B943">
+        <v>0.1420023670000035</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="1">
+        <v>942</v>
+      </c>
+      <c r="B944">
+        <v>0.1341458169999896</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="1">
+        <v>943</v>
+      </c>
+      <c r="B945">
+        <v>0.1300620190000075</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="1">
+        <v>944</v>
+      </c>
+      <c r="B946">
+        <v>0.142382122000015</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="1">
+        <v>945</v>
+      </c>
+      <c r="B947">
+        <v>0.1494985489999863</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="1">
+        <v>946</v>
+      </c>
+      <c r="B948">
+        <v>0.1484066089999772</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="1">
+        <v>947</v>
+      </c>
+      <c r="B949">
+        <v>0.1475541540000052</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="1">
+        <v>948</v>
+      </c>
+      <c r="B950">
+        <v>0.1468992759999992</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="1">
+        <v>949</v>
+      </c>
+      <c r="B951">
+        <v>0.1410104979999858</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="1">
+        <v>950</v>
+      </c>
+      <c r="B952">
+        <v>0.1490985500000193</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="1">
+        <v>951</v>
+      </c>
+      <c r="B953">
+        <v>0.1438087719999999</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" s="1">
+        <v>952</v>
+      </c>
+      <c r="B954">
+        <v>0.1393360950000044</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="1">
+        <v>953</v>
+      </c>
+      <c r="B955">
+        <v>0.1390795029999765</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" s="1">
+        <v>954</v>
+      </c>
+      <c r="B956">
+        <v>0.138097326999997</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" s="1">
+        <v>955</v>
+      </c>
+      <c r="B957">
+        <v>0.1421201140000221</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="1">
+        <v>956</v>
+      </c>
+      <c r="B958">
+        <v>0.1492636250000032</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" s="1">
+        <v>957</v>
+      </c>
+      <c r="B959">
+        <v>0.1474295650000101</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" s="1">
+        <v>958</v>
+      </c>
+      <c r="B960">
+        <v>0.1420762079999918</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" s="1">
+        <v>959</v>
+      </c>
+      <c r="B961">
+        <v>0.138374730999999</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" s="1">
+        <v>960</v>
+      </c>
+      <c r="B962">
+        <v>0.1448471129999973</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" s="1">
+        <v>961</v>
+      </c>
+      <c r="B963">
+        <v>0.1400565470000004</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" s="1">
+        <v>962</v>
+      </c>
+      <c r="B964">
+        <v>0.1408000920000063</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" s="1">
+        <v>963</v>
+      </c>
+      <c r="B965">
+        <v>0.1464331340000058</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" s="1">
+        <v>964</v>
+      </c>
+      <c r="B966">
+        <v>0.1467436099999873</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" s="1">
+        <v>965</v>
+      </c>
+      <c r="B967">
+        <v>0.1452676379999787</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" s="1">
+        <v>966</v>
+      </c>
+      <c r="B968">
+        <v>0.1327702000000102</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" s="1">
+        <v>967</v>
+      </c>
+      <c r="B969">
+        <v>0.1355259949999947</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" s="1">
+        <v>968</v>
+      </c>
+      <c r="B970">
+        <v>0.1444288680000057</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" s="1">
+        <v>969</v>
+      </c>
+      <c r="B971">
+        <v>0.1336106799999754</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" s="1">
+        <v>970</v>
+      </c>
+      <c r="B972">
+        <v>0.1333067620000179</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" s="1">
+        <v>971</v>
+      </c>
+      <c r="B973">
+        <v>0.1361808730000007</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" s="1">
+        <v>972</v>
+      </c>
+      <c r="B974">
+        <v>0.1335148860000004</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" s="1">
+        <v>973</v>
+      </c>
+      <c r="B975">
+        <v>0.1479438879999861</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" s="1">
+        <v>974</v>
+      </c>
+      <c r="B976">
+        <v>0.145436133000004</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" s="1">
+        <v>975</v>
+      </c>
+      <c r="B977">
+        <v>0.1457506000000137</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" s="1">
+        <v>976</v>
+      </c>
+      <c r="B978">
+        <v>0.147116522999994</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" s="1">
+        <v>977</v>
+      </c>
+      <c r="B979">
+        <v>0.146249814000015</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" s="1">
+        <v>978</v>
+      </c>
+      <c r="B980">
+        <v>0.1477232199999889</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" s="1">
+        <v>979</v>
+      </c>
+      <c r="B981">
+        <v>0.145359156000012</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" s="1">
+        <v>980</v>
+      </c>
+      <c r="B982">
+        <v>0.1420055029999787</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" s="1">
+        <v>981</v>
+      </c>
+      <c r="B983">
+        <v>0.1468354129999909</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" s="1">
+        <v>982</v>
+      </c>
+      <c r="B984">
+        <v>0.1388474309999879</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" s="1">
+        <v>983</v>
+      </c>
+      <c r="B985">
+        <v>0.1391453619999936</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" s="1">
+        <v>984</v>
+      </c>
+      <c r="B986">
+        <v>0.137420781000003</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="1">
+        <v>985</v>
+      </c>
+      <c r="B987">
+        <v>0.1438866050000058</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" s="1">
+        <v>986</v>
+      </c>
+      <c r="B988">
+        <v>0.1293122010000047</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" s="1">
+        <v>987</v>
+      </c>
+      <c r="B989">
+        <v>0.132284956999996</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" s="1">
+        <v>988</v>
+      </c>
+      <c r="B990">
+        <v>0.1469916480000109</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" s="1">
+        <v>989</v>
+      </c>
+      <c r="B991">
+        <v>0.1482423900000072</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" s="1">
+        <v>990</v>
+      </c>
+      <c r="B992">
+        <v>0.1442101959999889</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" s="1">
+        <v>991</v>
+      </c>
+      <c r="B993">
+        <v>0.1366230659999985</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" s="1">
+        <v>992</v>
+      </c>
+      <c r="B994">
+        <v>0.1490674750000096</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="1">
+        <v>993</v>
+      </c>
+      <c r="B995">
+        <v>0.1472559380000007</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" s="1">
+        <v>994</v>
+      </c>
+      <c r="B996">
+        <v>0.1387048800000059</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" s="1">
+        <v>995</v>
+      </c>
+      <c r="B997">
+        <v>0.144688025999983</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" s="1">
+        <v>996</v>
+      </c>
+      <c r="B998">
+        <v>0.1418464170000107</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" s="1">
+        <v>997</v>
+      </c>
+      <c r="B999">
+        <v>0.1433628730000009</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" s="1">
+        <v>998</v>
+      </c>
+      <c r="B1000">
+        <v>0.1380169290000026</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" s="1">
+        <v>999</v>
+      </c>
+      <c r="B1001">
+        <v>0.144121814000016</v>
       </c>
     </row>
   </sheetData>
